--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">SkillCastFinish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterUuid</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSkillActivate</t>
@@ -371,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,6 +412,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -422,10 +450,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,6 +483,17 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="スキル使用失敗" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="スキル詠唱完了" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="スキル発動" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="スキル詠唱開始" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="スキル詠唱完了" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="スキル発動" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -82,16 +83,22 @@
     <t xml:space="preserve">Reason</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketSkillCast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillCast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterUuid</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSkillCastFinish</t>
   </si>
   <si>
     <t xml:space="preserve">SkillCastFinish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterUuid</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSkillActivate</t>
@@ -380,6 +387,79 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -393,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,12 +525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
@@ -466,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,13 +566,35 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="スキル詠唱開始" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="スキル詠唱完了" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="スキル発動" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="リキャスト完了" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t xml:space="preserve">SkillActivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSkillRecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillRecast</t>
   </si>
 </sst>
 </file>
@@ -532,7 +539,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -607,4 +614,66 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -90,22 +90,22 @@
     <t xml:space="preserve">SkillCast</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketSkillCastFinish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillCastFinish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSkillActivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillActivate</t>
+  </si>
+  <si>
     <t xml:space="preserve">CharacterType</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterUuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketSkillCastFinish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkillCastFinish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketSkillActivate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkillActivate</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSkillRecast</t>
@@ -224,7 +224,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:C5 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,7 +310,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A4:C5 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,21 +431,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -464,10 +453,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,28 +486,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +507,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:C5 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -90,6 +90,12 @@
     <t xml:space="preserve">SkillCast</t>
   </si>
   <si>
+    <t xml:space="preserve">CharacterType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterUuid</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSkillCastFinish</t>
   </si>
   <si>
@@ -100,12 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">SkillActivate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterUuid</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSkillRecast</t>
@@ -224,7 +224,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:C5 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:C6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,7 +310,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A4:C5 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A4:C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,6 +437,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -453,10 +475,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A4:C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5:C6 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,6 +508,28 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +551,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="A4:C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -520,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +572,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,7 +635,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A4:C5 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:C6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="スキル詠唱完了" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="スキル発動" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="リキャスト完了" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="スキルリスト" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -112,6 +113,27 @@
   </si>
   <si>
     <t xml:space="preserve">SkillRecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSkillList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NormalAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill4</t>
   </si>
 </sst>
 </file>
@@ -224,7 +246,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:C6 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A8:B8 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,7 +332,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="A5:C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A8:B8 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A8:B8 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,7 +500,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5:C6 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A8:B8 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,7 +573,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="A5:C6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A8:B8 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,7 +657,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:C6 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A8:B8 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -687,4 +709,110 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetDisappeared</t>
   </si>
   <si>
     <t xml:space="preserve">Reason</t>
@@ -246,7 +249,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A8:B8 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,10 +332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A8:B8 C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,13 +391,24 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -416,7 +430,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A8:B8 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -429,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -500,7 +514,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A8:B8 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +587,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A8:B8 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,7 +671,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A8:B8 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -670,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,8 @@
     <sheet name="スキル発動" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="リキャスト完了" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="スキルリスト" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="スキルツリーノード" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="スキルツリーデータ" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -137,6 +139,42 @@
   </si>
   <si>
     <t xml:space="preserve">Skill4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTreeNode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSkillTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;SkillTreeNode&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes</t>
   </si>
 </sst>
 </file>
@@ -334,7 +372,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -829,4 +867,153 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -159,10 +159,10 @@
     <t xml:space="preserve">State</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketSkillTree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SkillTree</t>
+    <t xml:space="preserve">PacketSkillTreeData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTreeData</t>
   </si>
   <si>
     <t xml:space="preserve">$INCLUDE$</t>
@@ -956,7 +956,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTreeNode.h</t>
   </si>
   <si>
     <t xml:space="preserve">FlexArray&lt;SkillTreeNode&gt;</t>
@@ -953,10 +956,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,13 +1001,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <sheet name="スキルリスト" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="スキルツリーノード" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="スキルツリーデータ" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="スキルツリー開放要求" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="スキルツリー開放結果" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -178,6 +180,33 @@
   </si>
   <si>
     <t xml:space="preserve">Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSkillTreeOpenRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTreeOpenRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSkillTreeOpenResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTreeOpenResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NotEnoughCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
   </si>
 </sst>
 </file>
@@ -368,6 +397,163 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -958,7 +1144,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">NotEnoughCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlreadyOpened</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -319,7 +322,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="6:6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,7 +408,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="6:6 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,10 +467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,13 +537,24 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +576,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="6:6 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,7 +671,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="6:6 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,7 +755,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="6:6 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,7 +828,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="6:6 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,7 +912,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="6:6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -960,7 +974,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="6:6 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1066,7 +1080,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="6:6 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1145,7 +1159,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="6:6 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,10 +15,11 @@
     <sheet name="スキル発動" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="リキャスト完了" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="スキルリスト" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="スキルツリーノード" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="スキルツリーデータ" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="スキルツリー開放要求" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="スキルツリー開放結果" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="スキルリスト保存" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="スキルツリーノード" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="スキルツリーデータ" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="スキルツリー開放要求" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="スキルツリー開放結果" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">Skill4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSaveSkillList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveSkillList</t>
   </si>
   <si>
     <t xml:space="preserve">SkillTreeNode</t>
@@ -322,7 +329,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="6:6 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -405,10 +412,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="6:6 C5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,13 +449,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -467,10 +490,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,57 +527,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -568,15 +547,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="6:6 C7"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,10 +592,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +603,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,21 +614,32 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
+      <c r="C8" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -663,15 +653,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="6:6 A5"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -684,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,35 +695,46 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -747,15 +748,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="6:6 A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,14 +789,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,9 +804,20 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -820,15 +832,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="6:6 C5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,17 +892,6 @@
       </c>
       <c r="C5" s="0" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -904,15 +905,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="6:6 B3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -925,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,13 +946,35 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -966,15 +989,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="6:6 A8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -987,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,51 +1037,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1072,15 +1051,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="6:6 C5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,51 +1072,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1151,15 +1157,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="6:6 B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,18 +1199,24 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,10 +1224,100 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,11 +15,12 @@
     <sheet name="スキル発動" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="リキャスト完了" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="スキルリスト" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="スキルリスト保存" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="スキルツリーノード" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="スキルツリーデータ" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="スキルツリー開放要求" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="スキルツリー開放結果" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="スキルリスト保存リクエスト" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="スキルリスト保存レスポンス" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="スキルツリーノード" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="スキルツリーデータ" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="スキルツリー開放要求" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="スキルツリー開放結果" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="64">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -144,10 +145,28 @@
     <t xml:space="preserve">Skill4</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketSaveSkillList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaveSkillList</t>
+    <t xml:space="preserve">PacketSaveSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveSkillListRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSaveSkillListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaveSkillListResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
   </si>
   <si>
     <t xml:space="preserve">SkillTreeNode</t>
@@ -201,22 +220,10 @@
     <t xml:space="preserve">SkillTreeOpenResult</t>
   </si>
   <si>
-    <t xml:space="preserve">ResultCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
     <t xml:space="preserve">NotEnoughCost</t>
   </si>
   <si>
     <t xml:space="preserve">AlreadyOpened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
   </si>
 </sst>
 </file>
@@ -412,6 +419,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -428,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,18 +535,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,10 +554,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -506,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -568,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,10 +678,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,10 +711,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1250,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1257,10 +1343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,45 +1364,50 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">NotEnoughCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NotOpenedParent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NotEnoughLevel</t>
   </si>
   <si>
     <t xml:space="preserve">AlreadyOpened</t>
@@ -638,10 +644,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,17 +720,39 @@
         <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1345,7 +1373,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -644,10 +644,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,6 +754,17 @@
       </c>
       <c r="C10" s="0" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -151,6 +151,18 @@
     <t xml:space="preserve">SaveSkillListRequest</t>
   </si>
   <si>
+    <t xml:space="preserve">NodeId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeId4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSaveSkillListResponse</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeNotOpened</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -441,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,10 +464,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,10 +475,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,18 +556,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +661,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -660,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,10 +699,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,10 +710,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,10 +732,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,10 +743,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1305,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,7 +1345,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1382,10 +1397,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,10 +1437,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,21 +1448,32 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>44</v>
+      <c r="C7" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -151,16 +151,16 @@
     <t xml:space="preserve">SaveSkillListRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">NodeId1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeId2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeId3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeId4</t>
+    <t xml:space="preserve">SkillId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillId4</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSaveSkillListResponse</t>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeNotOpened</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -456,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,10 +461,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,10 +472,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,18 +553,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,10 +572,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +710,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +721,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +743,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +754,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1304,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1397,10 +1394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,24 +1453,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="70">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C10 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A7:C10 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A7:C10 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A7:C10 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -893,7 +893,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A7:C10 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,7 +977,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A7:C10 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A7:C10 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C10 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1301,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1394,10 +1394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1462,6 +1462,50 @@
         <v>48</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="95">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -61,15 +61,24 @@
     <t xml:space="preserve">SkillId</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">TargetType</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲットタイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TargetUuid</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲットＵＵＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSkillUseFailed</t>
   </si>
   <si>
@@ -85,15 +94,27 @@
     <t xml:space="preserve">RecastTime</t>
   </si>
   <si>
+    <t xml:space="preserve">リキャスト中</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancel</t>
   </si>
   <si>
+    <t xml:space="preserve">キャンセル</t>
+  </si>
+  <si>
     <t xml:space="preserve">TargetDisappeared</t>
   </si>
   <si>
+    <t xml:space="preserve">ターゲット消失</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reason</t>
   </si>
   <si>
+    <t xml:space="preserve">失敗理由</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSkillCast</t>
   </si>
   <si>
@@ -103,9 +124,15 @@
     <t xml:space="preserve">CharacterType</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタタイプ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CharacterUuid</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタＵＵＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSkillCastFinish</t>
   </si>
   <si>
@@ -133,18 +160,33 @@
     <t xml:space="preserve">NormalAttack</t>
   </si>
   <si>
+    <t xml:space="preserve">通常攻撃ＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skill1</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ１</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skill2</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ２</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skill3</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ３</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skill4</t>
   </si>
   <si>
+    <t xml:space="preserve">スキルＩＤ４</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSaveSkillListRequest</t>
   </si>
   <si>
@@ -175,12 +217,21 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
   </si>
   <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">Result</t>
   </si>
   <si>
+    <t xml:space="preserve">結果</t>
+  </si>
+  <si>
     <t xml:space="preserve">SkillTreeNode</t>
   </si>
   <si>
@@ -190,15 +241,27 @@
     <t xml:space="preserve">Closed</t>
   </si>
   <si>
+    <t xml:space="preserve">閉じている</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
   </si>
   <si>
+    <t xml:space="preserve">開いている</t>
+  </si>
+  <si>
     <t xml:space="preserve">NodeId</t>
   </si>
   <si>
+    <t xml:space="preserve">ノードＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">State</t>
   </si>
   <si>
+    <t xml:space="preserve">ステート</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSkillTreeData</t>
   </si>
   <si>
@@ -217,7 +280,7 @@
     <t xml:space="preserve">FlexArray&lt;SkillTreeNode&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Nodes</t>
+    <t xml:space="preserve">ノードリスト</t>
   </si>
   <si>
     <t xml:space="preserve">PacketSkillTreeOpenRequest</t>
@@ -235,13 +298,25 @@
     <t xml:space="preserve">NotEnoughCost</t>
   </si>
   <si>
+    <t xml:space="preserve">ゴールドが足りない</t>
+  </si>
+  <si>
     <t xml:space="preserve">NotOpenedParent</t>
   </si>
   <si>
+    <t xml:space="preserve">親が開かれていない</t>
+  </si>
+  <si>
     <t xml:space="preserve">NotEnoughLevel</t>
   </si>
   <si>
+    <t xml:space="preserve">レベルが足りない</t>
+  </si>
+  <si>
     <t xml:space="preserve">AlreadyOpened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">既に開かれている</t>
   </si>
 </sst>
 </file>
@@ -351,10 +426,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C10 B3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,16 +473,22 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,7 +499,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -437,10 +521,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A7:C10 C5"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,29 +537,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +576,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,10 +587,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +615,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="A7:C10"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,18 +649,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +690,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A7:C10 C5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +733,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +755,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A7:C10 C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,68 +792,86 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>67</v>
+        <v>89</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,10 +879,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +896,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -795,10 +918,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A7:C10"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -811,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,35 +955,44 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,10 +1000,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -890,10 +1025,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A7:C10 A5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,16 +1070,22 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,7 +1096,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -974,10 +1118,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A7:C10 A4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -990,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,10 +1158,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1175,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1197,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="A7:C10 C5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1063,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,10 +1237,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1254,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,6 +1269,9 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A7:C10 B3"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1147,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,6 +1334,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A7:C10"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1209,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,7 +1398,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,7 +1412,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1426,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1440,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,7 +1454,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A7:C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1315,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,7 +1519,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1533,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1547,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1561,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1394,10 +1583,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1410,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,24 +1620,30 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,10 +1651,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1668,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,7 +1682,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1696,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,7 +1710,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">FlexArray&lt;SkillTreeNode&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes</t>
   </si>
   <si>
     <t xml:space="preserve">ノードリスト</t>
@@ -612,10 +615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,6 +675,9 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>82</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +763,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,10 +818,10 @@
         <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,10 +832,10 @@
         <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,10 +846,10 @@
         <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +860,10 @@
         <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">SkillList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NormalAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通常攻撃ＩＤ</t>
   </si>
   <si>
     <t xml:space="preserve">Skill1</t>
@@ -540,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,13 +542,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,13 +556,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,10 +573,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +611,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -631,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,18 +646,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,13 +665,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,13 +795,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,13 +809,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +823,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,13 +837,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,13 +851,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,10 +896,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,20 +1444,6 @@
       </c>
       <c r="D7" s="0" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,10 +1505,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,10 +1519,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,10 +1533,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,10 +1547,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,13 +1609,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,13 +1623,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,10 +1640,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,10 +1668,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1696,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スキル使用" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t xml:space="preserve">リキャスト中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvalidSkill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無効なスキル</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel</t>
@@ -534,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,13 +548,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,13 +562,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,18 +652,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,13 +671,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,10 +739,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,13 +815,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,13 +829,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,13 +843,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,13 +857,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,13 +871,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,10 +888,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -918,10 +924,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,16 +1003,30 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1116,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,10 +1195,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,10 +1274,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,7 +1377,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,10 +1432,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,10 +1446,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,10 +1460,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,10 +1525,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,10 +1553,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,10 +1567,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,13 +1629,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,13 +1643,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,10 +1674,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,10 +1688,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,10 +1716,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Skill.xlsx
+++ b/Packet/PacketData/Skill.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="98">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">無効なスキル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻痺</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel</t>
@@ -540,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,13 +554,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,13 +568,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,10 +585,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,18 +658,18 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,13 +677,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,13 +807,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,13 +821,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +835,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,13 +849,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,13 +863,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,13 +877,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -924,10 +930,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1017,16 +1023,30 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1136,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,10 +1215,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,10 +1280,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,10 +1294,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,10 +1438,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,10 +1452,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,10 +1466,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,10 +1480,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,10 +1573,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,13 +1649,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,13 +1663,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,10 +1694,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,10 +1722,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1736,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
